--- a/RetailerCustomers.xlsx
+++ b/RetailerCustomers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/073a2ad6e5228e04/111/dev/appv1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\projects\PycharmProjects\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC10485FB1DF51685BDE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF462E02-EBF9-4826-8E6F-785A7424C452}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A88C780-C0DF-4587-BE63-8905809EED9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7370" yWindow="8070" windowWidth="16570" windowHeight="8950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="16570" windowHeight="8950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,6 +470,12 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3">
+        <v>566666</v>
+      </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>

--- a/RetailerCustomers.xlsx
+++ b/RetailerCustomers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\projects\PycharmProjects\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A88C780-C0DF-4587-BE63-8905809EED9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFEA184-E23D-4873-BCA4-46877CD7F2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16570" windowHeight="8950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16570" windowHeight="8950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>TaxID</t>
   </si>
@@ -79,6 +79,27 @@
   </si>
   <si>
     <t>111 Brewing, LLC</t>
+  </si>
+  <si>
+    <t>Fictional Retailer1</t>
+  </si>
+  <si>
+    <t>111 ave a</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Fictional Retailer2</t>
+  </si>
+  <si>
+    <t>Fictional Retailer4</t>
+  </si>
+  <si>
+    <t>134 ave b</t>
+  </si>
+  <si>
+    <t>7171 perry ave</t>
   </si>
 </sst>
 </file>
@@ -396,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,6 +513,84 @@
         <v>75020</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9856</v>
+      </c>
+      <c r="C4">
+        <v>7865965</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>75030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>123144</v>
+      </c>
+      <c r="C5">
+        <v>8758758758</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>75030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>986444</v>
+      </c>
+      <c r="C6">
+        <v>7676474474</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>75030</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
